--- a/example.xlsx
+++ b/example.xlsx
@@ -26,12 +26,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,53 +429,75 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OCR_STNK</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1166</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tipe OCR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OCR_KTP</t>
+          <t>OCR_STNK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42810</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OCR_NPWP</t>
+          <t>OCR_KTP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3597</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OCR_BPKB</t>
+          <t>OCR_NPWP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>OCR_BPKB</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>OCR_KK</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3182</v>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
